--- a/biology/Zoologie/Armadillidium_granulatum/Armadillidium_granulatum.xlsx
+++ b/biology/Zoologie/Armadillidium_granulatum/Armadillidium_granulatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Armadillidium granulatum est une espèce de cloportes qui vit principalement dans les zones littorales d'Europe.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Armadillidium granulatum Brandt, 1833[1],[2].
-Armadillidium granulatum a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Armadillidium granulatum Brandt, 1833,.
+Armadillidium granulatum a pour synonymes :
 Armadillidium grandinatum Budde-Lund, 1885
 Armadillidium insulanum subsp. kigatense Verhoeff, 1943
 Armadillidium lusitanicum Verhoeff, 1907
@@ -549,7 +563,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la) Ioanne Friderico Brandt, « Conspectus monographiæ crustaceorum oniscodorum Latreillii », Bulletin de la Société des naturalistes de Moscou, Moscou, МГУ, vol. 6,‎ 1833, p. 171-193 (ISSN 0007-7682, OCLC 1758754, lire en ligne)</t>
         </is>
